--- a/Design/CAD/mAEWing1 - BOM.xlsx
+++ b/Design/CAD/mAEWing1 - BOM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="539">
   <si>
     <t>Description</t>
   </si>
@@ -1359,12 +1359,6 @@
     <t>Aeronaut </t>
   </si>
   <si>
-    <t>Yoke 38/8</t>
-  </si>
-  <si>
-    <t>Yoke for folding prop, 38mm pin-to-pin</t>
-  </si>
-  <si>
     <t>http://www.espritmodel.com/aeronaut-yoke-for-turbo-and-black-spinners.aspx</t>
   </si>
   <si>
@@ -1633,6 +1627,27 @@
   </si>
   <si>
     <t>http://hobbyking.com/hobbyking/store/__32011__HobbyKing_Glider_Nose_Tow_Line_Release_11_7x42mm_US_Warehouse_.html</t>
+  </si>
+  <si>
+    <t>With shortened coax cable, removed cover</t>
+  </si>
+  <si>
+    <t>AER7234/49</t>
+  </si>
+  <si>
+    <t>http://www.espritmodel.com/aeronaut-cam-folding-propellers-rudi-freudenthaler.aspx</t>
+  </si>
+  <si>
+    <t>AER724221</t>
+  </si>
+  <si>
+    <t>Yoke for folding prop, 38mm pin-to-pin, 8mm shoulder</t>
+  </si>
+  <si>
+    <t>Folding 12" X 10"</t>
+  </si>
+  <si>
+    <t>Alternate Prop - Folding 12" X 10"</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2209,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,7 +2307,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>228</v>
@@ -2306,7 +2321,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>228</v>
@@ -2315,7 +2330,7 @@
         <v>42125</v>
       </c>
       <c r="D15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,19 +2645,19 @@
         <v/>
       </c>
       <c r="M4" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O4" s="2">
         <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3727,7 +3742,7 @@
         <v/>
       </c>
       <c r="M24" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
@@ -3783,14 +3798,14 @@
         <v/>
       </c>
       <c r="M25" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
         <v>1</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
@@ -3833,7 +3848,7 @@
         <v/>
       </c>
       <c r="M26" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
@@ -4537,16 +4552,16 @@
         <v/>
       </c>
       <c r="M39" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O39" s="2">
         <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q39" s="2"/>
     </row>
@@ -4589,7 +4604,7 @@
         <v/>
       </c>
       <c r="M40" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2">
@@ -4641,7 +4656,7 @@
         <v/>
       </c>
       <c r="M41" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2">
@@ -6883,17 +6898,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B81:Q81"/>
-    <mergeCell ref="B82:Q82"/>
-    <mergeCell ref="B83:Q83"/>
-    <mergeCell ref="B84:Q84"/>
-    <mergeCell ref="B85:Q85"/>
     <mergeCell ref="B91:Q91"/>
     <mergeCell ref="B86:Q86"/>
     <mergeCell ref="B87:Q87"/>
     <mergeCell ref="B88:Q88"/>
     <mergeCell ref="B89:Q89"/>
     <mergeCell ref="B90:Q90"/>
+    <mergeCell ref="B81:Q81"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="B83:Q83"/>
+    <mergeCell ref="B84:Q84"/>
+    <mergeCell ref="B85:Q85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6902,11 +6917,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7393,7 +7408,9 @@
       <c r="G11" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="J11" s="3">
         <v>50</v>
       </c>
@@ -7405,20 +7422,20 @@
         <v>197</v>
       </c>
       <c r="M11" s="2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2">
         <f>F11*M11</f>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>198</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -7455,14 +7472,14 @@
         <v>194</v>
       </c>
       <c r="M13" s="2">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="N13" s="2">
         <f>F13*M13</f>
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>211</v>
@@ -7505,14 +7522,14 @@
         <v>194</v>
       </c>
       <c r="M14" s="4">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N14" s="4">
         <f>F14*M14</f>
-        <v>139</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>430</v>
@@ -7529,13 +7546,13 @@
         <v>377</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>489</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>491</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -7555,18 +7572,18 @@
         <v>194</v>
       </c>
       <c r="M15" s="4">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N15" s="4">
         <f>F15*M15</f>
-        <v>58</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>195</v>
+        <v>68</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="P15" s="4"/>
       <c r="R15" s="49" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -7690,7 +7707,7 @@
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J19" s="3">
         <v>15</v>
@@ -7714,7 +7731,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="R19" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -7741,7 +7758,7 @@
         <v>360</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J20" s="3">
         <v>3.75</v>
@@ -7765,7 +7782,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="R20" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -7869,7 +7886,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="R22" s="51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -8045,7 +8062,7 @@
         <v>360</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J27" s="3">
         <v>15</v>
@@ -8069,7 +8086,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -8096,7 +8113,7 @@
         <v>360</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J28" s="3">
         <v>3.75</v>
@@ -8120,7 +8137,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="R28" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -8224,7 +8241,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="R30" s="51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -8306,7 +8323,7 @@
         <v>109.99</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" ref="K33:K38" si="6">F33*J33</f>
+        <f t="shared" ref="K33:K39" si="6">F33*J33</f>
         <v>109.99</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -8316,7 +8333,7 @@
         <v>357</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" ref="N33:N38" si="7">F33*M33</f>
+        <f t="shared" ref="N33:N39" si="7">F33*M33</f>
         <v>357</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -8324,7 +8341,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="R33" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -8372,7 +8389,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="R34" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -8442,31 +8459,33 @@
         <v>99</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="J36" s="3">
         <v>35</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M36" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P36" s="2"/>
       <c r="R36" s="29" t="s">
@@ -8481,13 +8500,13 @@
         <v>368</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>435</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>441</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -8496,31 +8515,31 @@
         <v>360</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
       <c r="J37" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" ref="K37" si="8">F37*J37</f>
+        <v>13</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M37" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" ref="N37" si="9">F37*M37</f>
+        <v>16</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P37" s="2"/>
       <c r="R37" s="29" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -8531,13 +8550,13 @@
         <v>368</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>438</v>
+        <v>535</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -8546,102 +8565,100 @@
         <v>360</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>439</v>
+        <v>536</v>
       </c>
       <c r="J38" s="3">
-        <v>5.49</v>
+        <v>9</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="6"/>
-        <v>5.49</v>
+        <v>9</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M38" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P38" s="2"/>
       <c r="R38" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="R39" s="35"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A39" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="2">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" s="3">
-        <f>12.09+8.54</f>
-        <v>20.63</v>
-      </c>
-      <c r="K41" s="3">
-        <f>F41*J41</f>
-        <v>123.78</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="H39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="6"/>
+        <v>5.49</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M41" s="33">
-        <f>17/6</f>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="N41" s="2">
-        <f>F41*M41</f>
-        <v>17</v>
-      </c>
-      <c r="O41" s="2" t="s">
+      <c r="M39" s="2">
+        <v>23</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="R41" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="P39" s="2"/>
+      <c r="R39" s="29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="R40" s="35"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -8651,45 +8668,49 @@
         <v>367</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="J42" s="3">
+        <f>12.09+8.54</f>
+        <v>20.63</v>
+      </c>
+      <c r="K42" s="3">
+        <f>F42*J42</f>
+        <v>123.78</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42" s="33">
+        <f>17/6</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="N42" s="2">
+        <f>F42*M42</f>
+        <v>17</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="R42" s="29" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -8699,48 +8720,45 @@
         <v>367</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J43" s="3">
-        <f>12.79+8.94</f>
-        <v>21.729999999999997</v>
-      </c>
-      <c r="K43" s="3">
-        <f>F43*J43</f>
-        <v>43.459999999999994</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M43" s="2">
-        <v>8</v>
-      </c>
-      <c r="N43" s="2">
-        <f>F43*M43</f>
-        <v>16</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="R43" s="29" t="s">
-        <v>464</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -8750,45 +8768,48 @@
         <v>367</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>152</v>
+        <v>241</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R44" s="21"/>
+      <c r="H44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="3">
+        <f>12.79+8.94</f>
+        <v>21.729999999999997</v>
+      </c>
+      <c r="K44" s="3">
+        <f>F44*J44</f>
+        <v>43.459999999999994</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" s="2">
+        <v>8</v>
+      </c>
+      <c r="N44" s="2">
+        <f>F44*M44</f>
+        <v>16</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="R44" s="29" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -8798,31 +8819,31 @@
         <v>367</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="2">
-        <f>F41</f>
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="K45" s="3">
-        <f>F45*J45</f>
-        <v>2.2199999999999998</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>194</v>
+      <c r="H45" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="M45" s="18" t="s">
         <v>2</v>
@@ -8836,9 +8857,7 @@
       <c r="P45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R45" s="29" t="s">
-        <v>404</v>
-      </c>
+      <c r="R45" s="21"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -8848,28 +8867,28 @@
         <v>367</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2">
-        <f>F41</f>
+        <f>F42</f>
         <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="J46" s="3">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="K46" s="3">
         <f>F46*J46</f>
-        <v>3.54</v>
+        <v>2.2199999999999998</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>194</v>
@@ -8887,7 +8906,7 @@
         <v>2</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -8898,28 +8917,28 @@
         <v>367</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="2">
-        <f>F43</f>
-        <v>2</v>
+        <f>F42</f>
+        <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J47" s="3">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
       <c r="K47" s="3">
         <f>F47*J47</f>
-        <v>0.76</v>
+        <v>3.54</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>194</v>
@@ -8937,62 +8956,60 @@
         <v>2</v>
       </c>
       <c r="R47" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="2">
+        <f>F44</f>
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="K48" s="3">
+        <f>F48*J48</f>
+        <v>0.76</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="29" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="3">
-        <v>8.49</v>
-      </c>
-      <c r="K49" s="3">
-        <f>J49*F49</f>
-        <v>8.49</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M49" s="2">
-        <v>3</v>
-      </c>
-      <c r="N49" s="2">
-        <f>F49*M49</f>
-        <v>3</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="R49" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
+    <row r="49" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>388</v>
@@ -9001,41 +9018,49 @@
         <v>391</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H50" s="50" t="s">
-        <v>462</v>
+      <c r="H50" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="J50" s="3">
-        <v>5</v>
+        <v>8.49</v>
       </c>
       <c r="K50" s="3">
         <f>J50*F50</f>
-        <v>5</v>
+        <v>8.49</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M50" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N50" s="2">
         <f>F50*M50</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="R50" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -9045,49 +9070,43 @@
         <v>391</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>448</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>511</v>
+      <c r="H51" s="50" t="s">
+        <v>460</v>
       </c>
       <c r="J51" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K51" s="3">
         <f>J51*F51</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>197</v>
       </c>
       <c r="M51" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N51" s="2">
         <f>F51*M51</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>196</v>
       </c>
       <c r="P51" s="2"/>
-      <c r="R51" s="29" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>388</v>
       </c>
@@ -9095,13 +9114,13 @@
         <v>391</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>67</v>
+        <v>447</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -9110,7 +9129,7 @@
         <v>360</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J52" s="3">
         <v>40</v>
@@ -9134,61 +9153,61 @@
       </c>
       <c r="P52" s="2"/>
       <c r="R52" s="29" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="B53" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J54" s="10">
-        <v>122.95</v>
-      </c>
-      <c r="K54" s="3">
-        <f t="shared" ref="K54:K57" si="8">J54*F54</f>
-        <v>122.95</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M54" s="2">
-        <v>38</v>
-      </c>
-      <c r="N54" s="2">
-        <f>F54*M54</f>
-        <v>38</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="R54" s="49" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J53" s="3">
+        <v>40</v>
+      </c>
+      <c r="K53" s="3">
+        <f>J53*F53</f>
+        <v>40</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2">
+        <f>F53*M53</f>
+        <v>3</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="R53" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>388</v>
       </c>
@@ -9196,13 +9215,13 @@
         <v>366</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>300</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -9211,31 +9230,31 @@
         <v>360</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J55" s="10">
-        <v>14.95</v>
+        <v>122.95</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="8"/>
-        <v>14.95</v>
+        <f t="shared" ref="K55:K58" si="10">J55*F55</f>
+        <v>122.95</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M55" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" ref="N55:N56" si="9">F55*M55</f>
-        <v>5</v>
+        <f>F55*M55</f>
+        <v>38</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P55" s="2"/>
       <c r="R55" s="49" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -9246,11 +9265,13 @@
         <v>366</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>449</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -9258,31 +9279,35 @@
       <c r="G56" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="J56" s="10">
-        <v>5</v>
+        <v>14.95</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>14.95</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2">
         <v>5</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N56:N57" si="11">F56*M56</f>
         <v>5</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>196</v>
       </c>
       <c r="P56" s="2"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R56" s="49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>388</v>
       </c>
@@ -9290,13 +9315,11 @@
         <v>366</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>249</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -9304,96 +9327,92 @@
       <c r="G57" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="4"/>
+      <c r="J57" s="10">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M57" s="2">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J58" s="10">
         <v>64.989999999999995</v>
       </c>
-      <c r="K57" s="3">
-        <f t="shared" si="8"/>
+      <c r="K58" s="3">
+        <f t="shared" si="10"/>
         <v>64.989999999999995</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M58" s="2">
         <v>23</v>
       </c>
-      <c r="N57" s="2">
-        <f>F57*M57</f>
+      <c r="N58" s="2">
+        <f>F58*M58</f>
         <v>23</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="R57" s="49" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="2"/>
+      <c r="R58" s="49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C59" s="15"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="2">
-        <v>4</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J60" s="3">
-        <f>1.04/4</f>
-        <v>0.26</v>
-      </c>
-      <c r="K60" s="3">
-        <f>F60*J60</f>
-        <v>1.04</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" ref="N60:N99" si="10">F60*M60</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="29" t="s">
-        <v>343</v>
-      </c>
+    <row r="60" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="15"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -9403,11 +9422,11 @@
         <v>382</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>265</v>
+        <v>477</v>
       </c>
       <c r="F61" s="2">
         <v>4</v>
@@ -9416,15 +9435,15 @@
         <v>360</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="J61" s="3">
-        <f>6.63/50</f>
-        <v>0.1326</v>
+        <f>1.04/4</f>
+        <v>0.26</v>
       </c>
       <c r="K61" s="3">
         <f>F61*J61</f>
-        <v>0.53039999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>194</v>
@@ -9433,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N61:N100" si="12">F61*M61</f>
         <v>0</v>
       </c>
       <c r="O61" s="2" t="s">
@@ -9442,59 +9461,62 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="29" t="s">
-        <v>483</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q62" s="37"/>
-      <c r="R62"/>
+      <c r="A62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="3">
+        <f>6.63/50</f>
+        <v>0.1326</v>
+      </c>
+      <c r="K62" s="3">
+        <f>F62*J62</f>
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="29" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F63" s="2">
-        <v>12</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="J63" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="K63" s="3">
-        <f>F63*J63</f>
-        <v>2.52</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M63" s="2">
-        <v>3</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="29" t="s">
-        <v>531</v>
-      </c>
+      <c r="Q63" s="37"/>
+      <c r="R63"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -9504,14 +9526,13 @@
         <v>381</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F64" s="2">
-        <f>F63</f>
         <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -9519,21 +9540,21 @@
       </c>
       <c r="H64" s="2"/>
       <c r="J64" s="3">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="K64" s="3">
         <f>F64*J64</f>
-        <v>0.72</v>
+        <v>2.52</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M64" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>196</v>
@@ -9541,73 +9562,71 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="29" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="2">
+        <f>F64</f>
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="J65" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="K65" s="3">
+        <f>F65*J65</f>
+        <v>0.72</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P65" s="2"/>
       <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J66" s="3">
-        <f>32/100</f>
-        <v>0.32</v>
-      </c>
-      <c r="K66" s="3">
-        <f>F66*J66</f>
-        <v>0.64</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M66" s="2">
-        <v>5</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P66" s="2"/>
+      <c r="R65" s="29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
       <c r="Q66" s="16"/>
-      <c r="R66" s="29" t="s">
-        <v>529</v>
-      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -9617,36 +9636,38 @@
         <v>383</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="F67" s="2">
-        <f>F66</f>
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="J67" s="3">
-        <v>0.12</v>
+        <f>32/100</f>
+        <v>0.32</v>
       </c>
       <c r="K67" s="3">
         <f>F67*J67</f>
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M67" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>196</v>
@@ -9654,76 +9675,76 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="G68"/>
-      <c r="R68"/>
-    </row>
-    <row r="69" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A68" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="B68" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F68" s="2">
+        <f>F67</f>
         <v>2</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="J69" s="3">
-        <f>32/100</f>
-        <v>0.32</v>
-      </c>
-      <c r="K69" s="3">
-        <f>F69*J69</f>
-        <v>0.64</v>
-      </c>
-      <c r="L69" s="2" t="s">
+      <c r="H68" s="2"/>
+      <c r="J68" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="K68" s="3">
+        <f>F68*J68</f>
+        <v>0.24</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M69" s="2">
-        <v>5</v>
-      </c>
-      <c r="N69" s="2">
-        <f>F69*M69</f>
-        <v>10</v>
-      </c>
-      <c r="O69" s="2" t="s">
+      <c r="M68" s="2">
+        <v>3</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="29" t="s">
-        <v>529</v>
-      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="G69"/>
+      <c r="R69"/>
     </row>
     <row r="70" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>481</v>
+        <v>263</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -9733,22 +9754,22 @@
       </c>
       <c r="H70" s="2"/>
       <c r="J70" s="3">
-        <f>1.36/4</f>
-        <v>0.34</v>
+        <f>32/100</f>
+        <v>0.32</v>
       </c>
       <c r="K70" s="3">
         <f>F70*J70</f>
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N70" s="2">
         <f>F70*M70</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>196</v>
@@ -9756,107 +9777,106 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="29" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="J71" s="3">
+        <f>1.36/4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K71" s="3">
+        <f>F71*J71</f>
+        <v>0.68</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M71" s="2">
+        <v>2</v>
+      </c>
+      <c r="N71" s="2">
+        <f>F71*M71</f>
+        <v>4</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="16"/>
-      <c r="R71" s="29"/>
+      <c r="R71" s="29" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="72" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>517</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72" s="2">
-        <v>8</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="J72" s="3">
-        <f>1.04/4</f>
-        <v>0.26</v>
-      </c>
-      <c r="K72" s="3">
-        <f>F72*J72</f>
-        <v>2.08</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" ref="N72:N75" si="11">F72*M72</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="16"/>
-      <c r="R72" s="29" t="s">
-        <v>343</v>
-      </c>
+      <c r="R72" s="29"/>
     </row>
     <row r="73" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="F73" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J73" s="3">
-        <v>0.05</v>
+        <f>1.04/4</f>
+        <v>0.26</v>
       </c>
       <c r="K73" s="3">
         <f>F73*J73</f>
-        <v>0.2</v>
+        <v>2.08</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>194</v>
@@ -9865,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N73:N76" si="13">F73*M73</f>
         <v>0</v>
       </c>
       <c r="O73" s="2" t="s">
@@ -9874,7 +9894,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="29" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -9882,14 +9902,14 @@
         <v>389</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F74" s="2">
         <v>4</v>
@@ -9898,21 +9918,23 @@
         <v>360</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J74" s="3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" ref="K74:K75" si="12">F74*J74</f>
-        <v>0.24</v>
+        <f>F74*J74</f>
+        <v>0.2</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
       <c r="N74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O74" s="2" t="s">
@@ -9921,7 +9943,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="16"/>
       <c r="R74" s="29" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -9929,33 +9951,37 @@
         <v>389</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="F75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="J75" s="3">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
+        <f t="shared" ref="K75:K76" si="14">F75*J75</f>
+        <v>0.24</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O75" s="2" t="s">
@@ -9963,142 +9989,136 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="16"/>
-      <c r="R75" s="29"/>
+      <c r="R75" s="29" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="76" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
+      <c r="A76" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="J76" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" s="16"/>
-      <c r="R76" s="35"/>
+      <c r="R76" s="29"/>
     </row>
     <row r="77" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="35"/>
+    </row>
+    <row r="78" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2">
+      <c r="B78" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
         <v>2</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="J77" s="3">
+      <c r="H78" s="2"/>
+      <c r="J78" s="3">
         <v>0.05</v>
       </c>
-      <c r="K77" s="3">
-        <f t="shared" ref="K77" si="13">F77*J77</f>
+      <c r="K78" s="3">
+        <f t="shared" ref="K78" si="15">F78*J78</f>
         <v>0.1</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2">
-        <f t="shared" ref="N77" si="14">F77*M77</f>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2">
+        <f t="shared" ref="N78" si="16">F78*M78</f>
         <v>0</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="O78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="29"/>
-    </row>
-    <row r="78" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="15"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="16"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J79" s="13"/>
+      <c r="R78" s="29"/>
+    </row>
+    <row r="79" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="J79" s="16"/>
       <c r="K79" s="16"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="39" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F80" s="2">
-        <v>8</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K80" s="3">
-        <f>J80*F80</f>
-        <v>1.6</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2">
-        <f>F80*M80</f>
-        <v>8</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P80" s="2"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="16"/>
       <c r="Q80" s="16"/>
-      <c r="R80" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R80" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>390</v>
       </c>
@@ -10106,11 +10126,11 @@
         <v>392</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>514</v>
+        <v>237</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F81" s="2">
         <v>8</v>
@@ -10119,7 +10139,7 @@
         <v>360</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J81" s="3">
         <v>0.2</v>
@@ -10144,10 +10164,10 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>390</v>
       </c>
@@ -10155,21 +10175,20 @@
         <v>392</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F82" s="2">
-        <f>F81</f>
         <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J82" s="3">
         <v>0.2</v>
@@ -10194,10 +10213,10 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="29" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>390</v>
       </c>
@@ -10205,36 +10224,38 @@
         <v>392</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F83" s="2">
-        <f>3*F82</f>
-        <v>24</v>
+        <f>F82</f>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="J83" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" ref="K83:K84" si="15">J83*F83</f>
-        <v>2.4000000000000004</v>
+        <f>J83*F83</f>
+        <v>1.6</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" s="2">
         <f>F83*M83</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>197</v>
@@ -10253,14 +10274,14 @@
         <v>392</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F84" s="2">
-        <f>3*F80</f>
+        <f>3*F83</f>
         <v>24</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -10271,7 +10292,7 @@
         <v>0.1</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K84:K85" si="17">J84*F84</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -10290,10 +10311,10 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>390</v>
       </c>
@@ -10301,40 +10322,36 @@
         <v>392</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>281</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>282</v>
+        <v>494</v>
       </c>
       <c r="F85" s="2">
-        <v>20</v>
+        <f>3*F81</f>
+        <v>24</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="H85" s="2"/>
       <c r="J85" s="3">
-        <f>15.39/50</f>
-        <v>0.30780000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="K85" s="3">
-        <f>J85*F85</f>
-        <v>6.1560000000000006</v>
+        <f t="shared" si="17"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M85" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" si="10"/>
-        <v>60</v>
+        <f>F85*M85</f>
+        <v>0</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>197</v>
@@ -10342,66 +10359,67 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" s="2">
+        <v>20</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J86" s="3">
+        <f>15.39/50</f>
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="K86" s="3">
+        <f>J86*F86</f>
+        <v>6.1560000000000006</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M86" s="2">
+        <v>3</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="3">
-        <f>3.19/2</f>
-        <v>1.595</v>
-      </c>
-      <c r="K87" s="3">
-        <f t="shared" ref="K87:K93" si="16">J87*F87</f>
-        <v>1.595</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M87" s="2">
-        <v>3</v>
-      </c>
-      <c r="N87" s="2">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="29" t="s">
-        <v>341</v>
-      </c>
+    <row r="87" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -10411,37 +10429,39 @@
         <v>393</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="F88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>360</v>
       </c>
       <c r="H88" s="2"/>
+      <c r="I88" s="37"/>
       <c r="J88" s="3">
-        <v>0.19</v>
+        <f>3.19/2</f>
+        <v>1.595</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="K88:K94" si="18">J88*F88</f>
+        <v>1.595</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M88" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>197</v>
@@ -10449,7 +10469,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="29" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -10466,10 +10486,9 @@
         <v>259</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F89" s="2">
-        <f>2*F88</f>
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -10477,10 +10496,10 @@
       </c>
       <c r="H89" s="2"/>
       <c r="J89" s="3">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
@@ -10490,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O89" s="2" t="s">
@@ -10499,7 +10518,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10516,9 +10535,10 @@
         <v>259</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F90" s="2">
+        <f>2*F89</f>
         <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -10526,10 +10546,10 @@
       </c>
       <c r="H90" s="2"/>
       <c r="J90" s="3">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -10539,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O90" s="2" t="s">
@@ -10548,7 +10568,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -10565,10 +10585,9 @@
         <v>259</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F91" s="2">
-        <f>2*F90</f>
         <v>0</v>
       </c>
       <c r="G91" s="2" t="s">
@@ -10576,10 +10595,10 @@
       </c>
       <c r="H91" s="2"/>
       <c r="J91" s="3">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L91" s="2" t="s">
@@ -10589,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O91" s="2" t="s">
@@ -10598,7 +10617,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="29" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10609,37 +10628,37 @@
         <v>393</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="F92" s="2">
+        <f>2*F91</f>
         <v>0</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H92" s="2"/>
       <c r="J92" s="3">
-        <f>23.63/25</f>
-        <v>0.94519999999999993</v>
+        <v>0.11</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M92" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O92" s="2" t="s">
@@ -10648,7 +10667,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="29" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -10659,13 +10678,13 @@
         <v>393</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
@@ -10679,7 +10698,7 @@
         <v>0.94519999999999993</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L93" s="2" t="s">
@@ -10689,7 +10708,7 @@
         <v>3</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O93" s="2" t="s">
@@ -10698,73 +10717,70 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="J94" s="3">
+        <f>23.63/25</f>
+        <v>0.94519999999999993</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M94" s="2">
+        <v>3</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="29" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C94" s="15"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="35"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="35"/>
-    </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F95" s="2">
-        <v>2</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="K95" s="3">
-        <f>J95*F95</f>
-        <v>1.36</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M95" s="2">
-        <v>2</v>
-      </c>
-      <c r="N95" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P95" s="2"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="35"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
       <c r="Q95" s="16"/>
-      <c r="R95" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="V95" s="35"/>
+      <c r="R95" s="35"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -10774,17 +10790,16 @@
         <v>394</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>315</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F96" s="2">
-        <f>F95*14</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>360</v>
@@ -10792,21 +10807,21 @@
       <c r="H96" s="2"/>
       <c r="I96" s="37"/>
       <c r="J96" s="3">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="K96" s="3">
         <f>J96*F96</f>
-        <v>2.8000000000000003</v>
+        <v>1.36</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M96" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>197</v>
@@ -10814,7 +10829,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S96" s="16"/>
       <c r="T96" s="16"/>
@@ -10828,16 +10843,17 @@
         <v>394</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>315</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F97" s="2">
-        <v>2</v>
+        <f>F96*14</f>
+        <v>28</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>360</v>
@@ -10845,21 +10861,21 @@
       <c r="H97" s="2"/>
       <c r="I97" s="37"/>
       <c r="J97" s="3">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="K97" s="3">
         <f>J97*F97</f>
-        <v>1.5</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M97" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>197</v>
@@ -10867,7 +10883,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S97" s="16"/>
       <c r="T97" s="16"/>
@@ -10881,17 +10897,16 @@
         <v>394</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>315</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F98" s="2">
-        <f>F97*14</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>360</v>
@@ -10899,21 +10914,21 @@
       <c r="H98" s="2"/>
       <c r="I98" s="37"/>
       <c r="J98" s="3">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="K98" s="3">
         <f>J98*F98</f>
-        <v>2.8000000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M98" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>197</v>
@@ -10921,7 +10936,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S98" s="16"/>
       <c r="T98" s="16"/>
@@ -10935,40 +10950,39 @@
         <v>394</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="F99" s="2">
-        <f>2*4*6+2*2*2+2*4*1</f>
-        <v>64</v>
+        <f>F98*14</f>
+        <v>28</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="37"/>
       <c r="J99" s="3">
-        <f>19/(6*25)</f>
-        <v>0.12666666666666668</v>
+        <v>0.1</v>
       </c>
       <c r="K99" s="3">
         <f>J99*F99</f>
-        <v>8.1066666666666674</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="10"/>
-        <v>64</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>197</v>
@@ -10976,46 +10990,101 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="V99" s="35"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F100" s="2">
+        <f>2*4*6+2*2*2+2*4*1</f>
+        <v>64</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="3">
+        <f>19/(6*25)</f>
+        <v>0.12666666666666668</v>
+      </c>
+      <c r="K100" s="3">
+        <f>J100*F100</f>
+        <v>8.1066666666666674</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="29" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R100"/>
-    </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K101" s="5" t="s">
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K102" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="N102" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K102" s="22">
-        <f>SUM(K1:K101)</f>
-        <v>4544.1854000000003</v>
-      </c>
-      <c r="N102" s="23">
-        <f>SUM(N1:N101)</f>
-        <v>2216.4</v>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K103" s="22">
+        <f>SUM(K1:K102)</f>
+        <v>4522.1854000000003</v>
+      </c>
+      <c r="N103" s="23">
+        <f>SUM(N1:N102)</f>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R31" r:id="rId1"/>
     <hyperlink ref="R23" r:id="rId2"/>
-    <hyperlink ref="R60" r:id="rId3"/>
-    <hyperlink ref="R85" r:id="rId4"/>
-    <hyperlink ref="R95" r:id="rId5"/>
-    <hyperlink ref="R96" r:id="rId6"/>
-    <hyperlink ref="R97" r:id="rId7"/>
-    <hyperlink ref="R98" r:id="rId8"/>
-    <hyperlink ref="R87" r:id="rId9"/>
-    <hyperlink ref="R99" r:id="rId10"/>
-    <hyperlink ref="R92" r:id="rId11"/>
-    <hyperlink ref="R93" r:id="rId12"/>
-    <hyperlink ref="R45" r:id="rId13"/>
-    <hyperlink ref="R46" r:id="rId14"/>
+    <hyperlink ref="R61" r:id="rId3"/>
+    <hyperlink ref="R86" r:id="rId4"/>
+    <hyperlink ref="R96" r:id="rId5"/>
+    <hyperlink ref="R97" r:id="rId6"/>
+    <hyperlink ref="R98" r:id="rId7"/>
+    <hyperlink ref="R99" r:id="rId8"/>
+    <hyperlink ref="R88" r:id="rId9"/>
+    <hyperlink ref="R100" r:id="rId10"/>
+    <hyperlink ref="R93" r:id="rId11"/>
+    <hyperlink ref="R94" r:id="rId12"/>
+    <hyperlink ref="R46" r:id="rId13"/>
+    <hyperlink ref="R47" r:id="rId14"/>
     <hyperlink ref="R14" r:id="rId15"/>
     <hyperlink ref="R13" r:id="rId16"/>
     <hyperlink ref="R25" r:id="rId17"/>
@@ -11024,20 +11093,20 @@
     <hyperlink ref="R26" r:id="rId20"/>
     <hyperlink ref="R21" r:id="rId21"/>
     <hyperlink ref="R29" r:id="rId22"/>
-    <hyperlink ref="R51" r:id="rId23"/>
+    <hyperlink ref="R52" r:id="rId23"/>
     <hyperlink ref="R36" r:id="rId24"/>
-    <hyperlink ref="R37" r:id="rId25"/>
-    <hyperlink ref="R38" r:id="rId26"/>
+    <hyperlink ref="R38" r:id="rId25"/>
+    <hyperlink ref="R39" r:id="rId26"/>
     <hyperlink ref="R33" r:id="rId27"/>
     <hyperlink ref="R34" r:id="rId28"/>
-    <hyperlink ref="R52" r:id="rId29"/>
-    <hyperlink ref="R55" r:id="rId30"/>
-    <hyperlink ref="R54" r:id="rId31"/>
-    <hyperlink ref="R57" r:id="rId32"/>
-    <hyperlink ref="R49" r:id="rId33"/>
-    <hyperlink ref="R41" r:id="rId34"/>
-    <hyperlink ref="R43" r:id="rId35"/>
-    <hyperlink ref="R47" r:id="rId36"/>
+    <hyperlink ref="R53" r:id="rId29"/>
+    <hyperlink ref="R56" r:id="rId30"/>
+    <hyperlink ref="R55" r:id="rId31"/>
+    <hyperlink ref="R58" r:id="rId32"/>
+    <hyperlink ref="R50" r:id="rId33"/>
+    <hyperlink ref="R42" r:id="rId34"/>
+    <hyperlink ref="R44" r:id="rId35"/>
+    <hyperlink ref="R48" r:id="rId36"/>
     <hyperlink ref="R30" r:id="rId37"/>
     <hyperlink ref="R22" r:id="rId38"/>
     <hyperlink ref="R28" r:id="rId39"/>
@@ -11045,21 +11114,22 @@
     <hyperlink ref="R27" r:id="rId41"/>
     <hyperlink ref="R19" r:id="rId42"/>
     <hyperlink ref="R11" r:id="rId43"/>
-    <hyperlink ref="R61" r:id="rId44"/>
-    <hyperlink ref="R70" r:id="rId45"/>
+    <hyperlink ref="R62" r:id="rId44"/>
+    <hyperlink ref="R71" r:id="rId45"/>
     <hyperlink ref="R15" r:id="rId46"/>
-    <hyperlink ref="R83" r:id="rId47"/>
-    <hyperlink ref="R84" r:id="rId48"/>
-    <hyperlink ref="R80" r:id="rId49"/>
-    <hyperlink ref="R81" r:id="rId50"/>
-    <hyperlink ref="R82" r:id="rId51"/>
-    <hyperlink ref="R79" r:id="rId52"/>
-    <hyperlink ref="R72" r:id="rId53"/>
-    <hyperlink ref="R73" r:id="rId54"/>
-    <hyperlink ref="R74" r:id="rId55"/>
+    <hyperlink ref="R84" r:id="rId47"/>
+    <hyperlink ref="R85" r:id="rId48"/>
+    <hyperlink ref="R81" r:id="rId49"/>
+    <hyperlink ref="R82" r:id="rId50"/>
+    <hyperlink ref="R83" r:id="rId51"/>
+    <hyperlink ref="R80" r:id="rId52"/>
+    <hyperlink ref="R73" r:id="rId53"/>
+    <hyperlink ref="R74" r:id="rId54"/>
+    <hyperlink ref="R75" r:id="rId55"/>
+    <hyperlink ref="R37" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -12353,7 +12423,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/Design/CAD/mAEWing1 - BOM.xlsx
+++ b/Design/CAD/mAEWing1 - BOM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="562">
   <si>
     <t>Description</t>
   </si>
@@ -921,18 +921,12 @@
     <t>Quick Release Mechanism</t>
   </si>
   <si>
-    <t>2-5/8" Snap Shackle</t>
-  </si>
-  <si>
     <t>http://www.amazon.com/FORMUFIT-F1145WC-WH-4-5-Way-Fitting-Furniture/dp/B00MNIYCHO/ref=sr_1_2?ie=UTF8&amp;qid=1428001012&amp;sr=8-2&amp;keywords=pvc+5-way</t>
   </si>
   <si>
     <t>http://www.amazon.com/FORMUFIT-F1144WT-WH-4-4-Way-Fitting-Furniture/dp/B00MNIYGSO/ref=sr_1_9?ie=UTF8&amp;qid=1428000961&amp;sr=8-9&amp;keywords=pvc+4-way</t>
   </si>
   <si>
-    <t>http://www.amazon.com/gp/product/B00FAAHSTQ/ref=ox_sc_act_title_2?ie=UTF8&amp;psc=1&amp;smid=A3KAPN2XFLC88V</t>
-  </si>
-  <si>
     <t>Mobeius</t>
   </si>
   <si>
@@ -981,36 +975,24 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>WM3606-ND</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/39-01-2141/WM3606-ND/61288</t>
   </si>
   <si>
     <t>Contact - Male</t>
   </si>
   <si>
-    <t>WM2500CT-ND</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/0039000040/WM2500CT-ND/467979</t>
   </si>
   <si>
     <t>Receptacle</t>
   </si>
   <si>
-    <t>WM3706-ND</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/0039012140/WM3706-ND/61391</t>
   </si>
   <si>
     <t>Contact - Female</t>
   </si>
   <si>
-    <t>WM2501CT-ND</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/0039000038/WM2501CT-ND/467978</t>
   </si>
   <si>
@@ -1530,15 +1512,6 @@
     <t>Futaba J connector Sleeve</t>
   </si>
   <si>
-    <t>http://www.hansenhobbies.com/products/connectors/servoconnectors/pt1in_ft/</t>
-  </si>
-  <si>
-    <t>http://www.hansenhobbies.com/products/connectors/servoconnectors/sc_fjh/</t>
-  </si>
-  <si>
-    <t>http://www.hansenhobbies.com/products/connectors/servoconnectors/sc_fjs/</t>
-  </si>
-  <si>
     <t>Not depicted in CAD model</t>
   </si>
   <si>
@@ -1648,6 +1621,102 @@
   </si>
   <si>
     <t>Alternate Prop - Folding 12" X 10"</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>Crimp Pin Connector - Female</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1375819-1/A100453CT-ND/2233146</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1375820-4/A99615-ND/634994</t>
+  </si>
+  <si>
+    <t>CST-100 II - 1375820-6</t>
+  </si>
+  <si>
+    <t>CST-100 II - 1375820-4</t>
+  </si>
+  <si>
+    <t>CST-100 II - 1375819-1</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/1375820-6/A99617-ND/1864918</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/640456-6/A1923-ND/109008</t>
+  </si>
+  <si>
+    <t>CST-100 II - 640456-6</t>
+  </si>
+  <si>
+    <t>CST-100 II - 640456-4</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/640456-4/A1922-ND/109006</t>
+  </si>
+  <si>
+    <t>Housing - 6 position</t>
+  </si>
+  <si>
+    <t>Header - 6 position</t>
+  </si>
+  <si>
+    <t>Header - 4 position</t>
+  </si>
+  <si>
+    <t>Housing - 4 position</t>
+  </si>
+  <si>
+    <t>Mini-Fit JR - WM3606-ND</t>
+  </si>
+  <si>
+    <t>Mini-Fit JR - WM2500CT-ND</t>
+  </si>
+  <si>
+    <t>Mini-Fit JR - WM3706-ND</t>
+  </si>
+  <si>
+    <t>Mini-Fit JR - WM2501CT-ND</t>
+  </si>
+  <si>
+    <t>v2.4 Rev C</t>
+  </si>
+  <si>
+    <t>Added Connectors for I2C and Comm port</t>
+  </si>
+  <si>
+    <t>Ethernet Socket</t>
+  </si>
+  <si>
+    <t>Data Dump Switch</t>
+  </si>
+  <si>
+    <t>Glider Tow Release</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>TM Antennae</t>
+  </si>
+  <si>
+    <t>TM Coax Cable</t>
+  </si>
+  <si>
+    <t>50-pin Connector</t>
+  </si>
+  <si>
+    <t>Mates with Goldy</t>
+  </si>
+  <si>
+    <t>15 pin Output Port</t>
+  </si>
+  <si>
+    <t>15 pin Input Port</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2252,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,7 +2278,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,7 +2344,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>228</v>
@@ -2284,30 +2353,30 @@
         <v>42102</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="28"/>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="28"/>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>228</v>
@@ -2316,12 +2385,12 @@
         <v>42103</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>228</v>
@@ -2330,11 +2399,22 @@
         <v>42125</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
+      <c r="A16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="28">
+        <v>42143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
@@ -2452,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G1" s="6">
         <v>1</v>
@@ -2473,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -2645,19 +2725,19 @@
         <v/>
       </c>
       <c r="M4" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="O4" s="2">
         <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3647,7 +3727,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="2"/>
@@ -3742,7 +3822,7 @@
         <v/>
       </c>
       <c r="M24" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
@@ -3798,20 +3878,20 @@
         <v/>
       </c>
       <c r="M25" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
         <v>1</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="2"/>
@@ -3848,7 +3928,7 @@
         <v/>
       </c>
       <c r="M26" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
@@ -3863,7 +3943,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="2"/>
@@ -3915,7 +3995,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
@@ -4023,7 +4103,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -4131,7 +4211,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -4183,7 +4263,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -4403,7 +4483,7 @@
     </row>
     <row r="37" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -4457,7 +4537,7 @@
     </row>
     <row r="38" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -4494,7 +4574,7 @@
         <v/>
       </c>
       <c r="M38" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2">
@@ -4552,22 +4632,22 @@
         <v/>
       </c>
       <c r="M39" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="O39" s="2">
         <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -4604,7 +4684,7 @@
         <v/>
       </c>
       <c r="M40" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2">
@@ -4619,7 +4699,7 @@
     </row>
     <row r="41" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -4656,7 +4736,7 @@
         <v/>
       </c>
       <c r="M41" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2">
@@ -4807,7 +4887,7 @@
         <v/>
       </c>
       <c r="M44" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2">
@@ -4863,14 +4943,14 @@
         <v/>
       </c>
       <c r="M45" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2">
         <v>1</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q45" s="2"/>
     </row>
@@ -4919,14 +4999,14 @@
         <v/>
       </c>
       <c r="M46" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2">
         <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q46" s="2"/>
     </row>
@@ -5367,7 +5447,7 @@
         <v/>
       </c>
       <c r="M54" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2">
@@ -5545,12 +5625,12 @@
         <v>233</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="2"/>
@@ -5604,7 +5684,7 @@
     </row>
     <row r="59" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="2"/>
@@ -5641,7 +5721,7 @@
         <v/>
       </c>
       <c r="M59" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2">
@@ -5791,7 +5871,7 @@
         <v/>
       </c>
       <c r="M62" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2">
@@ -5847,14 +5927,14 @@
         <v/>
       </c>
       <c r="M63" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2">
         <v>1</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
@@ -5903,14 +5983,14 @@
         <v/>
       </c>
       <c r="M64" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2">
         <v>1</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
@@ -5959,7 +6039,7 @@
         <v/>
       </c>
       <c r="M65" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2">
@@ -6015,7 +6095,7 @@
         <v/>
       </c>
       <c r="M66" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2">
@@ -6071,7 +6151,7 @@
         <v/>
       </c>
       <c r="M67" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2">
@@ -6127,7 +6207,7 @@
         <v/>
       </c>
       <c r="M68" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2">
@@ -6183,7 +6263,7 @@
         <v/>
       </c>
       <c r="M69" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2">
@@ -6239,7 +6319,7 @@
         <v/>
       </c>
       <c r="M70" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2">
@@ -6295,7 +6375,7 @@
         <v/>
       </c>
       <c r="M71" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2">
@@ -6351,7 +6431,7 @@
         <v/>
       </c>
       <c r="M72" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2">
@@ -6529,12 +6609,12 @@
         <v>233</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="2"/>
@@ -6588,7 +6668,7 @@
     </row>
     <row r="77" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="2"/>
@@ -6625,7 +6705,7 @@
         <v/>
       </c>
       <c r="M77" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2">
@@ -6640,7 +6720,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -6648,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="53"/>
@@ -6671,7 +6751,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C82" s="53"/>
       <c r="D82" s="53"/>
@@ -6694,7 +6774,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -6717,7 +6797,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C84" s="53"/>
       <c r="D84" s="53"/>
@@ -6740,7 +6820,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C85" s="53"/>
       <c r="D85" s="53"/>
@@ -6760,10 +6840,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="53" t="s">
         <v>327</v>
-      </c>
-      <c r="B86" s="53" t="s">
-        <v>333</v>
       </c>
       <c r="C86" s="53"/>
       <c r="D86" s="53"/>
@@ -6783,10 +6863,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C87" s="53"/>
       <c r="D87" s="53"/>
@@ -6806,10 +6886,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C88" s="53"/>
       <c r="D88" s="53"/>
@@ -6832,7 +6912,7 @@
         <v>18</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C89" s="53"/>
       <c r="D89" s="53"/>
@@ -6855,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="53" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="53"/>
@@ -6878,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="53" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C91" s="53"/>
       <c r="D91" s="53"/>
@@ -6917,11 +6997,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6948,7 +7028,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>7</v>
@@ -6966,7 +7046,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>1</v>
@@ -6993,7 +7073,7 @@
         <v>222</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7014,10 +7094,10 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>192</v>
@@ -7032,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="19" t="s">
@@ -7059,10 +7139,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -7077,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H4" s="2"/>
       <c r="J4" s="3">
@@ -7106,10 +7186,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -7124,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="3">
@@ -7153,10 +7233,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>51</v>
@@ -7171,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="3">
@@ -7200,10 +7280,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>54</v>
@@ -7218,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="3">
@@ -7247,10 +7327,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>60</v>
@@ -7265,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="3">
@@ -7294,10 +7374,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -7312,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="3">
@@ -7341,10 +7421,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
@@ -7359,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="3">
@@ -7388,10 +7468,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>57</v>
@@ -7406,10 +7486,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="J11" s="3">
         <v>50</v>
@@ -7435,41 +7515,37 @@
         <v>198</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>377</v>
+        <v>555</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="3">
-        <v>116.99</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ref="K13" si="1">J13*F13</f>
-        <v>116.99</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M13" s="2">
         <v>10</v>
@@ -7478,1470 +7554,1443 @@
         <f>F13*M13</f>
         <v>10</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="R13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" ref="K14" si="2">J14*F14</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <f>F14*M14</f>
+        <v>3</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="3">
+        <v>116.99</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16" si="3">J16*F16</f>
+        <v>116.99</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="M16" s="2">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2">
+        <f>F16*M16</f>
+        <v>10</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R13" s="29" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="R16" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="10">
+      <c r="E17" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="10">
         <v>12.99</v>
       </c>
-      <c r="K14" s="10">
-        <f>J14*F14</f>
+      <c r="K17" s="10">
+        <f>J17*F17</f>
         <v>12.99</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M17" s="4">
         <v>132</v>
       </c>
-      <c r="N14" s="4">
-        <f>F14*M14</f>
+      <c r="N17" s="4">
+        <f>F17*M17</f>
         <v>132</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="J15" s="10">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="K15" s="10">
-        <f>J15*F15</f>
-        <v>76.599999999999994</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" s="4">
-        <v>34</v>
-      </c>
-      <c r="N15" s="4">
-        <f>F15*M15</f>
-        <v>68</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="R15" s="49" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="3">
-        <v>109.99</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17:K23" si="2">F17*J17</f>
-        <v>219.98</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="2">
-        <v>51</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" ref="N17:N23" si="3">F17*M17</f>
-        <v>102</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="R17" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2">
-        <f>F17</f>
+      <c r="P17" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="J18" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="G18" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="J18" s="10">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K18" s="10">
+        <f>J18*F18</f>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="2">
-        <v>5</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="M18" s="4">
+        <v>34</v>
+      </c>
+      <c r="N18" s="4">
+        <f>F18*M18</f>
+        <v>68</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="R18" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="2">
-        <f>F17</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J19" s="3">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="R19" s="29" t="s">
-        <v>465</v>
+      <c r="P18" s="4"/>
+      <c r="R18" s="49" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2">
-        <f>F17</f>
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="J20" s="3">
-        <v>3.75</v>
+        <v>109.99</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f t="shared" ref="K20:K26" si="4">F20*J20</f>
+        <v>219.98</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="N20:N26" si="5">F20*M20</f>
+        <v>102</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P20" s="2"/>
       <c r="R20" s="29" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2">
+        <f>F20</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="J21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="R21" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2">
+        <f>F20</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="R22" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2">
+        <f>F20</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="R23" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="2">
-        <f>2*F17</f>
+      <c r="F24" s="2">
+        <f>2*F20</f>
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G24" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J24" s="3">
         <f>28/12</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" si="2"/>
+      <c r="K24" s="3">
+        <f t="shared" si="4"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="3"/>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="R21" s="29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="P24" s="2"/>
+      <c r="R24" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D25" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E25" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="30">
-        <f>2*F17</f>
+      <c r="F25" s="30">
+        <f>2*F20</f>
         <v>4</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="G25" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="J25" s="3">
         <f>3.69/2</f>
         <v>1.845</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="2"/>
+      <c r="K25" s="3">
+        <f t="shared" si="4"/>
         <v>7.38</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="3"/>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="R22" s="51" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="P25" s="2"/>
+      <c r="R25" s="51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="2">
-        <f>3*F17</f>
+      <c r="F26" s="2">
+        <f>3*F20</f>
         <v>6</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="G26" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J26" s="3">
         <f>6.69/15</f>
         <v>0.44600000000000001</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="R23" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="2">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="J25" s="3">
-        <v>109.99</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" ref="K25:K31" si="4">F25*J25</f>
-        <v>659.93999999999994</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="2">
-        <v>51</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" ref="N25:N31" si="5">F25*M25</f>
-        <v>306</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="R25" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="2">
-        <f>F25</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="J26" s="3">
-        <v>2.5</v>
-      </c>
       <c r="K26" s="3">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="2">
-        <f>F25</f>
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J27" s="3">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="R27" s="29" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F28" s="2">
-        <f>F25</f>
         <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="J28" s="3">
-        <v>3.75</v>
+        <v>109.99</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
+        <f t="shared" ref="K28:K34" si="6">F28*J28</f>
+        <v>659.93999999999994</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="N28:N34" si="7">F28*M28</f>
+        <v>306</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P28" s="2"/>
       <c r="R28" s="29" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F28</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="J29" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="R29" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2">
+        <f>F28</f>
+        <v>6</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J30" s="3">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="R30" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2">
+        <f>F28</f>
+        <v>6</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="6"/>
+        <v>22.5</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="R31" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="2">
-        <f>2*F25</f>
+      <c r="F32" s="2">
+        <f>2*F28</f>
         <v>12</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="G32" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" s="3">
         <f>28/12</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" si="4"/>
+      <c r="K32" s="3">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="5"/>
+      <c r="N32" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="R29" s="29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="P32" s="2"/>
+      <c r="R32" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D33" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E33" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="30">
-        <f>2*F25</f>
+      <c r="F33" s="30">
+        <f>2*F28</f>
         <v>12</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="G33" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <f>3.69/2</f>
         <v>1.845</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" si="4"/>
+      <c r="K33" s="3">
+        <f t="shared" si="6"/>
         <v>22.14</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" si="5"/>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="R30" s="51" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="P33" s="2"/>
+      <c r="R33" s="51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="2">
-        <f>3*F25</f>
+      <c r="F34" s="2">
+        <f>3*F28</f>
         <v>18</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="G34" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" s="3">
         <f>4.99/15</f>
         <v>0.33266666666666667</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" si="4"/>
-        <v>5.9879999999999995</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="R31" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="J33" s="3">
-        <v>109.99</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" ref="K33:K39" si="6">F33*J33</f>
-        <v>109.99</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M33" s="2">
-        <v>357</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" ref="N33:N39" si="7">F33*M33</f>
-        <v>357</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="R33" s="29" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="J34" s="3">
-        <v>102</v>
-      </c>
       <c r="K34" s="3">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>5.9879999999999995</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M34" s="20">
-        <v>85</v>
+      <c r="M34" s="2">
+        <v>0</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P34" s="2"/>
       <c r="R34" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J35" s="10">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="K35" s="10">
-        <f t="shared" si="6"/>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="4">
-        <v>205</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="R35" s="2"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="J36" s="3">
-        <v>35</v>
+        <v>109.99</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="K36:K42" si="8">F36*J36</f>
+        <v>109.99</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M36" s="2">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="N36:N42" si="9">F36*M36</f>
+        <v>357</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P36" s="2"/>
       <c r="R36" s="29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>441</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>533</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="J37" s="3">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" ref="K37" si="8">F37*J37</f>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M37" s="2">
-        <v>16</v>
+      <c r="M37" s="20">
+        <v>85</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" ref="N37" si="9">F37*M37</f>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>85</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P37" s="2"/>
       <c r="R37" s="29" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F38" s="2">
+        <v>362</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J38" s="3">
-        <v>9</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="L38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" s="10">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="8"/>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M38" s="2">
-        <v>8</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="R38" s="29" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="4">
+        <v>205</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>437</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>438</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="J39" s="3">
-        <v>5.49</v>
+        <v>35</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="6"/>
-        <v>5.49</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M39" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>194</v>
       </c>
       <c r="P39" s="2"/>
       <c r="R39" s="29" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="R40" s="35"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J40" s="3">
+        <v>13</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" ref="K40" si="10">F40*J40</f>
+        <v>13</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" s="2">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ref="N40" si="11">F40*M40</f>
+        <v>16</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="R40" s="29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M41" s="2">
+        <v>8</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="R41" s="29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>367</v>
+        <v>382</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="8"/>
+        <v>5.49</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42" s="2">
+        <v>23</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="R42" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F44" s="2">
         <v>6</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J44" s="3">
         <f>12.09+8.54</f>
         <v>20.63</v>
       </c>
-      <c r="K42" s="3">
-        <f>F42*J42</f>
+      <c r="K44" s="3">
+        <f>F44*J44</f>
         <v>123.78</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M42" s="33">
+      <c r="M44" s="33">
         <f>17/6</f>
         <v>2.8333333333333335</v>
       </c>
-      <c r="N42" s="2">
-        <f>F42*M42</f>
+      <c r="N44" s="2">
+        <f>F44*M44</f>
         <v>17</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="R42" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="P44" s="2"/>
+      <c r="R44" s="29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J45" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="K45" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L45" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M43" s="18" t="s">
+      <c r="M45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="O45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="P45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F46" s="2">
         <v>2</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J46" s="3">
         <f>12.79+8.94</f>
         <v>21.729999999999997</v>
       </c>
-      <c r="K44" s="3">
-        <f>F44*J44</f>
-        <v>43.459999999999994</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M44" s="2">
-        <v>8</v>
-      </c>
-      <c r="N44" s="2">
-        <f>F44*M44</f>
-        <v>16</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="R44" s="29" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R45" s="21"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="2">
-        <f>F42</f>
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.37</v>
-      </c>
       <c r="K46" s="3">
         <f>F46*J46</f>
-        <v>2.2199999999999998</v>
+        <v>43.459999999999994</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="M46" s="2">
+        <v>8</v>
+      </c>
+      <c r="N46" s="2">
+        <f>F46*M46</f>
+        <v>16</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P46" s="2"/>
       <c r="R46" s="29" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="2">
-        <f>F42</f>
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="K47" s="3">
-        <f>F47*J47</f>
-        <v>3.54</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>194</v>
+        <v>354</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="M47" s="18" t="s">
         <v>2</v>
@@ -8955,40 +9004,38 @@
       <c r="P47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R47" s="29" t="s">
-        <v>405</v>
-      </c>
+      <c r="R47" s="21"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" s="2">
         <f>F44</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="J48" s="3">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="K48" s="3">
         <f>F48*J48</f>
-        <v>0.76</v>
+        <v>2.2199999999999998</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>194</v>
@@ -9006,140 +9053,144 @@
         <v>2</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="2">
+        <f>F44</f>
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="K49" s="3">
+        <f>F49*J49</f>
+        <v>3.54</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2">
-        <v>1</v>
+        <f>F46</f>
+        <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="J50" s="3">
-        <v>8.49</v>
+        <v>0.38</v>
       </c>
       <c r="K50" s="3">
-        <f>J50*F50</f>
-        <v>8.49</v>
+        <f>F50*J50</f>
+        <v>0.76</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M50" s="2">
-        <v>3</v>
-      </c>
-      <c r="N50" s="2">
-        <f>F50*M50</f>
-        <v>3</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>207</v>
+      <c r="M50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="J51" s="3">
-        <v>5</v>
-      </c>
-      <c r="K51" s="3">
-        <f>J51*F51</f>
-        <v>5</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="M51" s="2">
-        <v>15</v>
-      </c>
-      <c r="N51" s="2">
-        <f>F51*M51</f>
-        <v>15</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="R51" s="2"/>
-    </row>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>446</v>
+        <v>205</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>509</v>
+        <v>238</v>
       </c>
       <c r="J52" s="3">
-        <v>40</v>
+        <v>8.49</v>
       </c>
       <c r="K52" s="3">
         <f>J52*F52</f>
-        <v>40</v>
+        <v>8.49</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M52" s="2">
         <v>3</v>
@@ -9149,412 +9200,457 @@
         <v>3</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P52" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="R52" s="29" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>448</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>510</v>
+        <v>354</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>454</v>
       </c>
       <c r="J53" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K53" s="3">
         <f>J53*F53</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>197</v>
       </c>
       <c r="M53" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N53" s="2">
         <f>F53*M53</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>196</v>
       </c>
       <c r="P53" s="2"/>
-      <c r="R53" s="29" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>40</v>
+      </c>
+      <c r="K54" s="3">
+        <f>J54*F54</f>
+        <v>40</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3</v>
+      </c>
+      <c r="N54" s="2">
+        <f>F54*M54</f>
+        <v>3</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="R54" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F55" s="4">
+        <v>385</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J55" s="10">
-        <v>122.95</v>
+        <v>354</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J55" s="3">
+        <v>40</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" ref="K55:K58" si="10">J55*F55</f>
-        <v>122.95</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>194</v>
+        <f>J55*F55</f>
+        <v>40</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="M55" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N55" s="2">
         <f>F55*M55</f>
+        <v>3</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="R55" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J57" s="10">
+        <v>122.95</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" ref="K57:K60" si="12">J57*F57</f>
+        <v>122.95</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M57" s="2">
         <v>38</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="N57" s="2">
+        <f>F57*M57</f>
+        <v>38</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="R55" s="49" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="P57" s="2"/>
+      <c r="R57" s="49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J56" s="10">
+      <c r="J58" s="10">
         <v>14.95</v>
       </c>
-      <c r="K56" s="3">
-        <f t="shared" si="10"/>
+      <c r="K58" s="3">
+        <f t="shared" si="12"/>
         <v>14.95</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M56" s="2">
-        <v>5</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" ref="N56:N57" si="11">F56*M56</f>
-        <v>5</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="R56" s="49" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="J57" s="10">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M57" s="2">
-        <v>5</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J58" s="10">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="10"/>
-        <v>64.989999999999995</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M58" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N58" s="2">
-        <f>F58*M58</f>
-        <v>23</v>
+        <f t="shared" ref="N58:N59" si="13">F58*M58</f>
+        <v>5</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P58" s="2"/>
       <c r="R58" s="49" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="15"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="J59" s="10">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M59" s="2">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J60" s="10">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="12"/>
+        <v>64.989999999999995</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M60" s="2">
+        <v>23</v>
+      </c>
+      <c r="N60" s="2">
+        <f>F60*M60</f>
+        <v>23</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="R60" s="49" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="15"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F63" s="2">
         <v>4</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G63" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J63" s="3">
         <f>1.04/4</f>
         <v>0.26</v>
       </c>
-      <c r="K61" s="3">
-        <f>F61*J61</f>
+      <c r="K63" s="3">
+        <f>F63*J63</f>
         <v>1.04</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M63" s="2">
         <v>0</v>
       </c>
-      <c r="N61" s="2">
-        <f t="shared" ref="N61:N100" si="12">F61*M61</f>
+      <c r="N63" s="2">
+        <f t="shared" ref="N63:N104" si="14">F63*M63</f>
         <v>0</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="P63" s="2"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F64" s="2">
         <v>4</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="G64" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J64" s="3">
         <f>6.63/50</f>
         <v>0.1326</v>
       </c>
-      <c r="K62" s="3">
-        <f>F62*J62</f>
-        <v>0.53039999999999998</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q63" s="37"/>
-      <c r="R63"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="2">
-        <v>12</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H64" s="2"/>
-      <c r="J64" s="3">
-        <v>0.21</v>
-      </c>
       <c r="K64" s="3">
         <f>F64*J64</f>
-        <v>2.52</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M64" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="12"/>
-        <v>36</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>196</v>
@@ -9562,112 +9658,98 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="29" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" s="2">
-        <f>F64</f>
+      <c r="Q65" s="37"/>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="J65" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="K65" s="3">
-        <f>F65*J65</f>
-        <v>0.72</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" s="2">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="J66" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="K66" s="3">
+        <f>F66*J66</f>
+        <v>2.52</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M65" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="O65" s="2" t="s">
+      <c r="M66" s="2">
+        <v>3</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="29" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="16"/>
+      <c r="R66" s="29" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <f>F66</f>
+        <v>12</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>396</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="J67" s="3">
-        <f>32/100</f>
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="K67" s="3">
         <f>F67*J67</f>
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M67" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>196</v>
@@ -9675,101 +9757,112 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B68" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="B69" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J69" s="3">
+        <f>32/100</f>
+        <v>0.32</v>
+      </c>
+      <c r="K69" s="3">
+        <f>F69*J69</f>
+        <v>0.64</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M69" s="2">
+        <v>5</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F68" s="2">
-        <f>F67</f>
-        <v>2</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="J68" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="K68" s="3">
-        <f>F68*J68</f>
-        <v>0.24</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M68" s="2">
-        <v>3</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="G69"/>
-      <c r="R69"/>
-    </row>
-    <row r="70" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="F70" s="2">
+        <f>F69</f>
         <v>2</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H70" s="2"/>
       <c r="J70" s="3">
-        <f>32/100</f>
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="K70" s="3">
         <f>F70*J70</f>
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M70" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" s="2">
-        <f>F70*M70</f>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>196</v>
@@ -9777,116 +9870,101 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="G71"/>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="2">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F72" s="2">
         <v>2</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="J71" s="3">
+      <c r="G72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="J72" s="3">
+        <f>32/100</f>
+        <v>0.32</v>
+      </c>
+      <c r="K72" s="3">
+        <f>F72*J72</f>
+        <v>0.64</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M72" s="2">
+        <v>5</v>
+      </c>
+      <c r="N72" s="2">
+        <f>F72*M72</f>
+        <v>10</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="J73" s="3">
         <f>1.36/4</f>
         <v>0.34</v>
       </c>
-      <c r="K71" s="3">
-        <f>F71*J71</f>
-        <v>0.68</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M71" s="2">
-        <v>2</v>
-      </c>
-      <c r="N71" s="2">
-        <f>F71*M71</f>
-        <v>4</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="29" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="29"/>
-    </row>
-    <row r="73" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F73" s="2">
-        <v>8</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="J73" s="3">
-        <f>1.04/4</f>
-        <v>0.26</v>
-      </c>
       <c r="K73" s="3">
         <f>F73*J73</f>
-        <v>2.08</v>
+        <v>0.68</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M73" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" ref="N73:N76" si="13">F73*M73</f>
-        <v>0</v>
+        <f>F73*M73</f>
+        <v>4</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>196</v>
@@ -9894,94 +9972,67 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="29" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F74" s="2">
-        <v>4</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K74" s="3">
-        <f>F74*J74</f>
-        <v>0.2</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="16"/>
-      <c r="R74" s="29" t="s">
-        <v>525</v>
-      </c>
+      <c r="R74" s="29"/>
     </row>
     <row r="75" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="F75" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="J75" s="3">
-        <v>0.06</v>
+        <f>1.04/4</f>
+        <v>0.26</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" ref="K75:K76" si="14">F75*J75</f>
-        <v>0.24</v>
+        <f>F75*J75</f>
+        <v>2.08</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M75" s="2"/>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
       <c r="N75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N75:N78" si="15">F75*M75</f>
         <v>0</v>
       </c>
       <c r="O75" s="2" t="s">
@@ -9990,41 +10041,47 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="29" t="s">
-        <v>526</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="F76" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="J76" s="3">
         <v>0.05</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
+        <f>F76*J76</f>
+        <v>0.2</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
       <c r="N76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O76" s="2" t="s">
@@ -10032,36 +10089,66 @@
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="16"/>
-      <c r="R76" s="29"/>
+      <c r="R76" s="29" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="77" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
+      <c r="A77" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" ref="K77:K78" si="16">F77*J77</f>
+        <v>0.24</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="16"/>
-      <c r="R77" s="35"/>
+      <c r="R77" s="29" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -10069,14 +10156,14 @@
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H78" s="2"/>
       <c r="J78" s="3">
         <v>0.05</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" ref="K78" si="15">F78*J78</f>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="L78" s="2" t="s">
@@ -10084,7 +10171,7 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2">
-        <f t="shared" ref="N78" si="16">F78*M78</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
@@ -10095,7 +10182,9 @@
       <c r="R78" s="29"/>
     </row>
     <row r="79" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -10103,159 +10192,130 @@
       <c r="H79" s="14"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
       <c r="Q79" s="16"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J80" s="13"/>
-      <c r="K80" s="16"/>
+      <c r="R79" s="35"/>
+    </row>
+    <row r="80" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="J80" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" ref="K80" si="17">F80*J80</f>
+        <v>0.1</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2">
+        <f t="shared" ref="N80" si="18">F80*M80</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" s="16"/>
-      <c r="R80" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F81" s="2">
-        <v>8</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K81" s="3">
-        <f>J81*F81</f>
-        <v>1.6</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2">
-        <f>F81*M81</f>
-        <v>8</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P81" s="2"/>
+      <c r="R80" s="29"/>
+    </row>
+    <row r="81" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
       <c r="Q81" s="16"/>
-      <c r="R81" s="29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F82" s="2">
-        <v>8</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K82" s="3">
-        <f>J82*F82</f>
-        <v>1.6</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1</v>
-      </c>
-      <c r="N82" s="2">
-        <f>F82*M82</f>
-        <v>8</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P82" s="2"/>
+      <c r="R81" s="35"/>
+    </row>
+    <row r="82" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
       <c r="Q82" s="16"/>
-      <c r="R82" s="29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="E83" s="2" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="F83" s="2">
-        <f>F82</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="H83" s="2"/>
       <c r="J83" s="3">
-        <v>0.2</v>
+        <f>23.63/25</f>
+        <v>0.94519999999999993</v>
       </c>
       <c r="K83" s="3">
         <f>J83*F83</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M83" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N83" s="2">
         <f>F83*M83</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>197</v>
@@ -10263,43 +10323,45 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D84" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="E84" s="2" t="s">
-        <v>493</v>
+        <v>269</v>
       </c>
       <c r="F84" s="2">
-        <f>3*F83</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H84" s="2"/>
       <c r="J84" s="3">
-        <v>0.1</v>
+        <f>23.63/25</f>
+        <v>0.94519999999999993</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" ref="K84:K85" si="17">J84*F84</f>
-        <v>2.4000000000000004</v>
+        <f>J84*F84</f>
+        <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M84" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N84" s="2">
         <f>F84*M84</f>
@@ -10311,47 +10373,51 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="29" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E85" s="2" t="s">
-        <v>494</v>
+        <v>282</v>
       </c>
       <c r="F85" s="2">
-        <f>3*F81</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="J85" s="3">
-        <v>0.1</v>
+        <f>15.39/50</f>
+        <v>0.30780000000000002</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="17"/>
-        <v>2.4000000000000004</v>
+        <f>J85*F85</f>
+        <v>6.1560000000000006</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M85" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N85" s="2">
         <f>F85*M85</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>197</v>
@@ -10359,51 +10425,51 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="29" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="F86" s="2">
-        <v>20</v>
+        <f>2*4*6+2*2*2+2*4*1</f>
+        <v>64</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="37"/>
       <c r="J86" s="3">
-        <f>15.39/50</f>
-        <v>0.30780000000000002</v>
+        <f>19/(6*25)</f>
+        <v>0.12666666666666668</v>
       </c>
       <c r="K86" s="3">
         <f>J86*F86</f>
-        <v>6.1560000000000006</v>
+        <v>8.1066666666666674</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M86" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="12"/>
-        <v>60</v>
+        <f>F86*M86</f>
+        <v>64</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>197</v>
@@ -10411,345 +10477,296 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="16"/>
       <c r="R86" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J87" s="13"/>
+      <c r="K87" s="16"/>
+      <c r="Q87" s="16"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="37"/>
+        <v>354</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="J88" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K88" s="3">
+        <f>J88*F88</f>
+        <v>1.6</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2">
+        <f>F88*M88</f>
+        <v>8</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F89" s="2">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K89" s="3">
+        <f>J89*F89</f>
+        <v>1.6</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2">
+        <f>F89*M89</f>
+        <v>8</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F90" s="2">
+        <f>F89</f>
+        <v>8</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K90" s="3">
+        <f>J90*F90</f>
+        <v>1.6</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M90" s="2">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2">
+        <f>F90*M90</f>
+        <v>8</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F91" s="2">
+        <f>3*F90</f>
+        <v>24</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="J91" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K91" s="3">
+        <f t="shared" ref="K91:K92" si="19">J91*F91</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <f>F91*M91</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F92" s="2">
+        <f>3*F88</f>
+        <v>24</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="J92" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K92" s="3">
+        <f t="shared" si="19"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <f>F92*M92</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="3">
         <f>3.19/2</f>
         <v>1.595</v>
       </c>
-      <c r="K88" s="3">
-        <f t="shared" ref="K88:K94" si="18">J88*F88</f>
-        <v>1.595</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M88" s="2">
-        <v>3</v>
-      </c>
-      <c r="N88" s="2">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H89" s="2"/>
-      <c r="J89" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="K89" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M89" s="2">
-        <v>1</v>
-      </c>
-      <c r="N89" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F90" s="2">
-        <f>2*F89</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H90" s="2"/>
-      <c r="J90" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M90" s="2">
-        <v>1</v>
-      </c>
-      <c r="N90" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F91" s="2">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H91" s="2"/>
-      <c r="J91" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="K91" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M91" s="2">
-        <v>1</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F92" s="2">
-        <f>2*F91</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H92" s="2"/>
-      <c r="J92" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="K92" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M92" s="2">
-        <v>1</v>
-      </c>
-      <c r="N92" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F93" s="2">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="J93" s="3">
-        <f>23.63/25</f>
-        <v>0.94519999999999993</v>
-      </c>
-      <c r="K93" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M93" s="2">
-        <v>3</v>
-      </c>
-      <c r="N93" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F94" s="2">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H94" s="2"/>
-      <c r="J94" s="3">
-        <f>23.63/25</f>
-        <v>0.94519999999999993</v>
-      </c>
       <c r="K94" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="K94:K99" si="20">J94*F94</f>
+        <v>3.19</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>194</v>
@@ -10758,8 +10775,8 @@
         <v>3</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>197</v>
@@ -10767,61 +10784,67 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="16"/>
       <c r="R94" s="29" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C95" s="15"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="35"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
       <c r="Q95" s="16"/>
-      <c r="R95" s="35"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R95" s="29"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F96" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H96" s="2"/>
-      <c r="I96" s="37"/>
       <c r="J96" s="3">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
       <c r="K96" s="3">
-        <f>J96*F96</f>
-        <v>1.36</v>
+        <f t="shared" si="20"/>
+        <v>1.1400000000000001</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>197</v>
@@ -10829,53 +10852,49 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="V96" s="35"/>
+        <v>396</v>
+      </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F97" s="2">
-        <f>F96*14</f>
-        <v>28</v>
+        <f>2*F96</f>
+        <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H97" s="2"/>
-      <c r="I97" s="37"/>
       <c r="J97" s="3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K97" s="3">
-        <f>J97*F97</f>
-        <v>2.8000000000000003</v>
+        <f t="shared" si="20"/>
+        <v>1.32</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>197</v>
@@ -10883,52 +10902,48 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="V97" s="35"/>
+        <v>394</v>
+      </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F98" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H98" s="2"/>
-      <c r="I98" s="37"/>
       <c r="J98" s="3">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
       <c r="K98" s="3">
-        <f>J98*F98</f>
-        <v>1.5</v>
+        <f t="shared" si="20"/>
+        <v>1.32</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>197</v>
@@ -10936,53 +10951,49 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="V98" s="35"/>
+        <v>397</v>
+      </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F99" s="2">
-        <f>F98*14</f>
-        <v>28</v>
+        <f>2*F98</f>
+        <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H99" s="2"/>
-      <c r="I99" s="37"/>
       <c r="J99" s="3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K99" s="3">
-        <f>J99*F99</f>
-        <v>2.8000000000000003</v>
+        <f t="shared" si="20"/>
+        <v>1.32</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>194</v>
       </c>
       <c r="M99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>197</v>
@@ -10990,146 +11001,838 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="V99" s="35"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="35"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="35"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F100" s="2">
-        <f>2*4*6+2*2*2+2*4*1</f>
-        <v>64</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="3">
-        <f>19/(6*25)</f>
-        <v>0.12666666666666668</v>
-      </c>
-      <c r="K100" s="3">
-        <f>J100*F100</f>
-        <v>8.1066666666666674</v>
-      </c>
-      <c r="L100" s="2" t="s">
+      <c r="B101" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="K101" s="3">
+        <f>J101*F101</f>
+        <v>1.36</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M100" s="2">
-        <v>1</v>
-      </c>
-      <c r="N100" s="2">
-        <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="O100" s="2" t="s">
+      <c r="M101" s="2">
+        <v>2</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R101"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="V101" s="35"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K102" s="5" t="s">
+      <c r="A102" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F102" s="2">
+        <f>F101*14</f>
+        <v>28</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K102" s="3">
+        <f>J102*F102</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="V102" s="35"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K103" s="3">
+        <f>J103*F103</f>
+        <v>1.5</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M103" s="2">
+        <v>2</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="V103" s="35"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F104" s="2">
+        <f>F103*14</f>
+        <v>28</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K104" s="3">
+        <f>J104*F104</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="V104" s="35"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F106" s="2">
+        <v>8</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="J106" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="K106" s="3">
+        <f>J106*F106</f>
+        <v>1.2</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M106" s="2">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" ref="N106:N109" si="21">F106*M106</f>
+        <v>8</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="V106" s="35"/>
+    </row>
+    <row r="107" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F107" s="2">
+        <v>5</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="J107" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="K107" s="3">
+        <f>J107*F107</f>
+        <v>0.75</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="V107" s="35"/>
+    </row>
+    <row r="108" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F108" s="2">
+        <v>4</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="J108" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K108" s="3">
+        <f>J108*F108</f>
+        <v>1</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M108" s="2">
+        <v>1</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="V108" s="35"/>
+    </row>
+    <row r="109" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="J109" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K109" s="3">
+        <f>J109*F109</f>
+        <v>0.8</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="V109" s="35"/>
+    </row>
+    <row r="110" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F110" s="2">
+        <f>4*F106+6*F108</f>
+        <v>56</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="J110" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K110" s="3">
+        <f>J110*F110</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <f t="shared" ref="N110" si="22">F110*M110</f>
+        <v>0</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="V110" s="35"/>
+    </row>
+    <row r="111" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="J112" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K112" s="3">
+        <f>J112*F112</f>
+        <v>0.5</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M112" s="2">
+        <v>3</v>
+      </c>
+      <c r="N112" s="2">
+        <f t="shared" ref="N112:N116" si="23">F112*M112</f>
+        <v>3</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="V112" s="35"/>
+    </row>
+    <row r="113" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="J113" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="3">
+        <f>J113*F113</f>
+        <v>0.5</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M113" s="2">
+        <v>1</v>
+      </c>
+      <c r="N113" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="V113" s="35"/>
+    </row>
+    <row r="114" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="J114" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" ref="K114:K116" si="24">J114*F114</f>
+        <v>0.5</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M114" s="2">
+        <v>2</v>
+      </c>
+      <c r="N114" s="2">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="V114" s="35"/>
+    </row>
+    <row r="115" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="J115" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M115" s="2">
+        <v>1</v>
+      </c>
+      <c r="N115" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="V115" s="35"/>
+    </row>
+    <row r="116" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="J116" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M116" s="2">
+        <v>1</v>
+      </c>
+      <c r="N116" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="V116" s="35"/>
+    </row>
+    <row r="117" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="V117" s="35"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K118" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N118" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K103" s="22">
-        <f>SUM(K1:K102)</f>
-        <v>4522.1854000000003</v>
-      </c>
-      <c r="N103" s="23">
-        <f>SUM(N1:N102)</f>
-        <v>2057</v>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K119" s="22">
+        <f>SUM(K1:K118)</f>
+        <v>4547.9303999999993</v>
+      </c>
+      <c r="N119" s="23">
+        <f>SUM(N1:N118)</f>
+        <v>2129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R31" r:id="rId1"/>
-    <hyperlink ref="R23" r:id="rId2"/>
-    <hyperlink ref="R61" r:id="rId3"/>
-    <hyperlink ref="R86" r:id="rId4"/>
-    <hyperlink ref="R96" r:id="rId5"/>
-    <hyperlink ref="R97" r:id="rId6"/>
-    <hyperlink ref="R98" r:id="rId7"/>
-    <hyperlink ref="R99" r:id="rId8"/>
-    <hyperlink ref="R88" r:id="rId9"/>
-    <hyperlink ref="R100" r:id="rId10"/>
-    <hyperlink ref="R93" r:id="rId11"/>
-    <hyperlink ref="R94" r:id="rId12"/>
-    <hyperlink ref="R46" r:id="rId13"/>
-    <hyperlink ref="R47" r:id="rId14"/>
-    <hyperlink ref="R14" r:id="rId15"/>
-    <hyperlink ref="R13" r:id="rId16"/>
-    <hyperlink ref="R25" r:id="rId17"/>
-    <hyperlink ref="R17" r:id="rId18"/>
-    <hyperlink ref="R18" r:id="rId19"/>
-    <hyperlink ref="R26" r:id="rId20"/>
-    <hyperlink ref="R21" r:id="rId21"/>
-    <hyperlink ref="R29" r:id="rId22"/>
-    <hyperlink ref="R52" r:id="rId23"/>
-    <hyperlink ref="R36" r:id="rId24"/>
-    <hyperlink ref="R38" r:id="rId25"/>
-    <hyperlink ref="R39" r:id="rId26"/>
-    <hyperlink ref="R33" r:id="rId27"/>
-    <hyperlink ref="R34" r:id="rId28"/>
-    <hyperlink ref="R53" r:id="rId29"/>
-    <hyperlink ref="R56" r:id="rId30"/>
-    <hyperlink ref="R55" r:id="rId31"/>
-    <hyperlink ref="R58" r:id="rId32"/>
-    <hyperlink ref="R50" r:id="rId33"/>
-    <hyperlink ref="R42" r:id="rId34"/>
-    <hyperlink ref="R44" r:id="rId35"/>
-    <hyperlink ref="R48" r:id="rId36"/>
-    <hyperlink ref="R30" r:id="rId37"/>
-    <hyperlink ref="R22" r:id="rId38"/>
-    <hyperlink ref="R28" r:id="rId39"/>
-    <hyperlink ref="R20" r:id="rId40"/>
-    <hyperlink ref="R27" r:id="rId41"/>
-    <hyperlink ref="R19" r:id="rId42"/>
+    <hyperlink ref="R34" r:id="rId1"/>
+    <hyperlink ref="R26" r:id="rId2"/>
+    <hyperlink ref="R63" r:id="rId3"/>
+    <hyperlink ref="R85" r:id="rId4"/>
+    <hyperlink ref="R101" r:id="rId5"/>
+    <hyperlink ref="R102" r:id="rId6"/>
+    <hyperlink ref="R103" r:id="rId7"/>
+    <hyperlink ref="R104" r:id="rId8"/>
+    <hyperlink ref="R94" r:id="rId9"/>
+    <hyperlink ref="R86" r:id="rId10"/>
+    <hyperlink ref="R83" r:id="rId11"/>
+    <hyperlink ref="R84" r:id="rId12"/>
+    <hyperlink ref="R48" r:id="rId13"/>
+    <hyperlink ref="R49" r:id="rId14"/>
+    <hyperlink ref="R17" r:id="rId15"/>
+    <hyperlink ref="R16" r:id="rId16"/>
+    <hyperlink ref="R28" r:id="rId17"/>
+    <hyperlink ref="R20" r:id="rId18"/>
+    <hyperlink ref="R21" r:id="rId19"/>
+    <hyperlink ref="R29" r:id="rId20"/>
+    <hyperlink ref="R24" r:id="rId21"/>
+    <hyperlink ref="R32" r:id="rId22"/>
+    <hyperlink ref="R54" r:id="rId23"/>
+    <hyperlink ref="R39" r:id="rId24"/>
+    <hyperlink ref="R41" r:id="rId25"/>
+    <hyperlink ref="R42" r:id="rId26"/>
+    <hyperlink ref="R36" r:id="rId27"/>
+    <hyperlink ref="R37" r:id="rId28"/>
+    <hyperlink ref="R55" r:id="rId29"/>
+    <hyperlink ref="R58" r:id="rId30"/>
+    <hyperlink ref="R57" r:id="rId31"/>
+    <hyperlink ref="R60" r:id="rId32"/>
+    <hyperlink ref="R52" r:id="rId33"/>
+    <hyperlink ref="R44" r:id="rId34"/>
+    <hyperlink ref="R46" r:id="rId35"/>
+    <hyperlink ref="R50" r:id="rId36"/>
+    <hyperlink ref="R33" r:id="rId37"/>
+    <hyperlink ref="R25" r:id="rId38"/>
+    <hyperlink ref="R31" r:id="rId39"/>
+    <hyperlink ref="R23" r:id="rId40"/>
+    <hyperlink ref="R30" r:id="rId41"/>
+    <hyperlink ref="R22" r:id="rId42"/>
     <hyperlink ref="R11" r:id="rId43"/>
-    <hyperlink ref="R62" r:id="rId44"/>
-    <hyperlink ref="R71" r:id="rId45"/>
-    <hyperlink ref="R15" r:id="rId46"/>
-    <hyperlink ref="R84" r:id="rId47"/>
-    <hyperlink ref="R85" r:id="rId48"/>
-    <hyperlink ref="R81" r:id="rId49"/>
-    <hyperlink ref="R82" r:id="rId50"/>
-    <hyperlink ref="R83" r:id="rId51"/>
-    <hyperlink ref="R80" r:id="rId52"/>
-    <hyperlink ref="R73" r:id="rId53"/>
-    <hyperlink ref="R74" r:id="rId54"/>
-    <hyperlink ref="R75" r:id="rId55"/>
-    <hyperlink ref="R37" r:id="rId56"/>
+    <hyperlink ref="R64" r:id="rId44"/>
+    <hyperlink ref="R73" r:id="rId45"/>
+    <hyperlink ref="R18" r:id="rId46"/>
+    <hyperlink ref="R88" r:id="rId47"/>
+    <hyperlink ref="R75" r:id="rId48"/>
+    <hyperlink ref="R76" r:id="rId49"/>
+    <hyperlink ref="R77" r:id="rId50"/>
+    <hyperlink ref="R40" r:id="rId51"/>
+    <hyperlink ref="R110" r:id="rId52"/>
+    <hyperlink ref="R106" r:id="rId53"/>
+    <hyperlink ref="R108" r:id="rId54"/>
+    <hyperlink ref="R109" r:id="rId55"/>
+    <hyperlink ref="R107" r:id="rId56"/>
+    <hyperlink ref="R89:R92" r:id="rId57" display="http://hobbyking.com/hobbyking/store/__43715__JST_SH_Servo_Plug_Set_Futaba_Gold_Plated_10pairs_set_US_Warehouse_.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -11137,7 +11840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -11170,7 +11873,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>1</v>
@@ -11182,7 +11885,7 @@
         <v>201</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11199,7 +11902,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>218</v>
@@ -11227,7 +11930,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>79</v>
@@ -11240,7 +11943,7 @@
         <v>134.85000000000002</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11257,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>284</v>
@@ -11285,7 +11988,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>107</v>
@@ -11298,7 +12001,7 @@
         <v>50.099999999999994</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -11315,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>79</v>
@@ -11328,7 +12031,7 @@
         <v>44.95</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11345,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>116</v>
@@ -11358,7 +12061,7 @@
         <v>158.5</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11373,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="3">
@@ -11395,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>120</v>
@@ -11421,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>283</v>
@@ -11449,7 +12152,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>279</v>
@@ -11477,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>276</v>
@@ -11493,7 +12196,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -11510,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="3">
@@ -11521,7 +12224,7 @@
         <v>104.95</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11538,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="3">
@@ -11549,7 +12252,7 @@
         <v>44.95</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -11566,7 +12269,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="3">
@@ -11577,7 +12280,7 @@
         <v>57.5</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -11594,7 +12297,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="3">
@@ -11605,7 +12308,7 @@
         <v>47.5</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11622,7 +12325,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="3">
@@ -11633,12 +12336,12 @@
         <v>39</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>74</v>
@@ -11650,10 +12353,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H23" s="3">
         <v>29.95</v>
@@ -11663,7 +12366,7 @@
         <v>29.95</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11680,10 +12383,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H24" s="3">
         <v>7.95</v>
@@ -11693,7 +12396,7 @@
         <v>39.75</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -11706,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>117</v>
@@ -11732,7 +12435,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>223</v>
@@ -11753,13 +12456,13 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>224</v>
@@ -11808,8 +12511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11848,12 +12551,12 @@
         <v>201</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J2" s="39"/>
     </row>
@@ -11954,7 +12657,7 @@
     </row>
     <row r="8" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -12009,13 +12712,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -12083,7 +12786,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -12156,7 +12859,7 @@
         <v>10.4</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12180,7 +12883,7 @@
         <v>15.2</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -12189,26 +12892,26 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>296</v>
+        <v>554</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="10">
-        <v>10.99</v>
+        <v>3.29</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>10.99</v>
+        <v>3.29</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>299</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -12228,7 +12931,7 @@
     </row>
     <row r="25" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J25" s="39"/>
     </row>
@@ -12307,7 +13010,7 @@
     </row>
     <row r="29" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -12328,7 +13031,7 @@
     </row>
     <row r="31" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -12418,22 +13121,19 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H37" s="22">
         <f>SUM(H1:H33)</f>
-        <v>2778.9599999999991</v>
+        <v>2771.2599999999993</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>531</v>
-      </c>
+      <c r="A41" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J20" r:id="rId1"/>
     <hyperlink ref="J21" r:id="rId2"/>
     <hyperlink ref="J22" r:id="rId3"/>
-    <hyperlink ref="A41" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>